--- a/catalogusdata/Matrix functionaliteit Catalogus.xlsx
+++ b/catalogusdata/Matrix functionaliteit Catalogus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>Tijdreizen</t>
   </si>
@@ -44,12 +44,6 @@
     <t>export</t>
   </si>
   <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>zoom</t>
-  </si>
-  <si>
     <t>Header menu</t>
   </si>
   <si>
@@ -59,9 +53,6 @@
     <t>Alle concepten</t>
   </si>
   <si>
-    <t>Detail pagina</t>
-  </si>
-  <si>
     <t>Omgevingswet</t>
   </si>
   <si>
@@ -182,15 +173,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>tabel</t>
-  </si>
-  <si>
-    <t>graph</t>
-  </si>
-  <si>
-    <t>ander versies</t>
-  </si>
-  <si>
     <t>getest in Alle concepten</t>
   </si>
   <si>
@@ -288,6 +270,36 @@
   </si>
   <si>
     <t>Regressietesten gebouwd</t>
+  </si>
+  <si>
+    <t>Weergavepagina Concepten (huidig)</t>
+  </si>
+  <si>
+    <t>Weergavepagina Concepten (vorige graph)</t>
+  </si>
+  <si>
+    <t>Waardelijsten</t>
+  </si>
+  <si>
+    <t>Weergavepagina prov:Activity</t>
+  </si>
+  <si>
+    <t>Weergavepagina prov:Agent</t>
+  </si>
+  <si>
+    <t>Weergavepagina domein</t>
+  </si>
+  <si>
+    <t>Weergavepagina Collecties (huidig)</t>
+  </si>
+  <si>
+    <t>Weergavepagina Collecties (vorige graph)</t>
+  </si>
+  <si>
+    <t>Weergavepagina waardelijsten (actueel)</t>
+  </si>
+  <si>
+    <t>Weergavepagina waardelijsten (vorige graph)</t>
   </si>
 </sst>
 </file>
@@ -661,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N83"/>
+  <dimension ref="A2:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,17 +690,15 @@
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -706,24 +716,18 @@
         <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -735,12 +739,10 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -752,168 +754,162 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -921,18 +917,16 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -941,18 +935,16 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -961,15 +953,17 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -977,10 +971,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -993,15 +985,17 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1009,18 +1003,16 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1029,40 +1021,34 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1071,19 +1057,13 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1091,68 +1071,58 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="L21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1161,36 +1131,36 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1199,18 +1169,16 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1219,18 +1187,16 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1238,39 +1204,45 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="J28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1279,19 +1251,15 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>42</v>
-      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1299,18 +1267,16 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1319,18 +1285,16 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1339,32 +1303,32 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="L33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1373,87 +1337,73 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1461,32 +1411,28 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1496,75 +1442,73 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>25</v>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1577,12 +1521,10 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1595,12 +1537,10 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1611,264 +1551,240 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="K56" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>61</v>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="K58" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>63</v>
-      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1877,18 +1793,16 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1897,32 +1811,26 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>66</v>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1935,39 +1843,33 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>67</v>
-      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="K63" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>68</v>
-      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -1975,18 +1877,16 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -1995,18 +1895,16 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="9" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -2015,18 +1913,16 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
-        <v>71</v>
+      <c r="B67" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -2035,19 +1931,15 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
-        <v>72</v>
-      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -2055,18 +1947,16 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="4" t="s">
-        <v>73</v>
+      <c r="B69" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -2075,18 +1965,16 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="4" t="s">
-        <v>74</v>
+      <c r="B70" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -2095,18 +1983,16 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
-        <v>75</v>
+      <c r="B71" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -2115,17 +2001,17 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>76</v>
+      <c r="B72" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -2133,17 +2019,17 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -2151,18 +2037,16 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
-        <v>78</v>
+      <c r="B74" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -2171,18 +2055,16 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
-        <v>79</v>
+      <c r="B75" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -2191,17 +2073,17 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -2209,18 +2091,16 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
-        <v>81</v>
+      <c r="B77" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -2229,18 +2109,16 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1" t="s">
-        <v>82</v>
+      <c r="B78" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -2249,19 +2127,15 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="4" t="s">
-        <v>83</v>
-      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -2269,25 +2143,129 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="7" t="s">
-        <v>87</v>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/catalogusdata/Matrix functionaliteit Catalogus.xlsx
+++ b/catalogusdata/Matrix functionaliteit Catalogus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="94">
   <si>
     <t>Tijdreizen</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>Weergavepagina waardelijsten (vorige graph)</t>
+  </si>
+  <si>
+    <t>Weergavepagina Catalogus</t>
+  </si>
+  <si>
+    <t>Weergavepagina dataset</t>
   </si>
 </sst>
 </file>
@@ -673,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L89"/>
+  <dimension ref="A2:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:B67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,10 +980,14 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -989,12 +999,12 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1006,14 +1016,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1025,7 +1031,7 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1043,7 +1049,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1060,10 +1066,14 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1075,30 +1085,20 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -1115,36 +1115,40 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1153,10 +1157,10 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -1171,16 +1175,18 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1191,12 +1197,12 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1207,42 +1213,32 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="1"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1254,25 +1250,37 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
@@ -1287,15 +1295,13 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1307,7 +1313,7 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1320,18 +1326,18 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1343,7 +1349,7 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1356,18 +1362,18 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1379,7 +1385,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1397,7 +1403,7 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1413,13 +1419,15 @@
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="1"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1431,51 +1439,45 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1489,7 +1491,7 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1507,40 +1509,48 @@
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="1"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1551,32 +1561,28 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L47" s="1"/>
+      <c r="A47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1593,8 +1599,8 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>13</v>
+      <c r="A49" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1611,8 +1617,8 @@
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>22</v>
+      <c r="A50" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1623,28 +1629,32 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>24</v>
+      <c r="A52" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1659,49 +1669,41 @@
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L53" s="1"/>
+      <c r="A53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1721,7 +1723,7 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1739,10 +1741,10 @@
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="1"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
@@ -1753,13 +1755,15 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="K57" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1778,7 +1782,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1795,10 +1799,10 @@
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="1"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
@@ -1809,33 +1813,39 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>54</v>
+      <c r="A62" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -1845,26 +1855,24 @@
       <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L63" s="1"/>
+      <c r="A63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1879,33 +1887,31 @@
       <c r="L64" s="1"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="A65" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
+      <c r="K65" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="A66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -1917,7 +1923,7 @@
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1933,13 +1939,15 @@
       <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" s="1"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -1951,7 +1959,7 @@
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1967,15 +1975,13 @@
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="A70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -1987,7 +1993,7 @@
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2005,7 +2011,7 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2023,7 +2029,7 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2041,7 +2047,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2058,8 +2064,8 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="4" t="s">
-        <v>67</v>
+      <c r="B75" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2076,8 +2082,8 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="4" t="s">
-        <v>68</v>
+      <c r="B76" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2094,8 +2100,8 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="9" t="s">
-        <v>69</v>
+      <c r="B77" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2112,8 +2118,8 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="9" t="s">
-        <v>70</v>
+      <c r="B78" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2129,13 +2135,15 @@
       <c r="L78" s="1"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" s="1"/>
+      <c r="A79" s="1"/>
+      <c r="B79" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -2146,8 +2154,8 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
-        <v>72</v>
+      <c r="B80" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2163,15 +2171,13 @@
       <c r="L80" s="1"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -2181,13 +2187,15 @@
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B82" s="1"/>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -2199,7 +2207,7 @@
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2215,15 +2223,13 @@
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -2234,8 +2240,8 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="4" t="s">
-        <v>77</v>
+      <c r="B85" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2250,21 +2256,57 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="1"/>
+      <c r="B87" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B89" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="8" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="7" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="7" t="s">
         <v>81</v>
       </c>
     </row>
